--- a/xuexi_socket/图像解释socket.xlsx
+++ b/xuexi_socket/图像解释socket.xlsx
@@ -76,11 +76,11 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>85724</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -91,8 +91,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85724" y="247649"/>
-          <a:ext cx="2990851" cy="4781551"/>
+          <a:off x="85724" y="200025"/>
+          <a:ext cx="3067051" cy="4829175"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -128,16 +128,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -146,7 +146,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7391399" y="314326"/>
+          <a:off x="9401174" y="542926"/>
           <a:ext cx="1552575" cy="1543050"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -186,13 +186,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>95249</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -201,8 +201,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3524249" y="1133475"/>
-          <a:ext cx="2619376" cy="247650"/>
+          <a:off x="3524249" y="1085850"/>
+          <a:ext cx="2619376" cy="419099"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -298,124 +298,72 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="流程图: 终止 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276349" y="1162049"/>
+          <a:ext cx="657225" cy="561976"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>recv</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="流程图: 终止 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="552450" y="4000499"/>
-          <a:ext cx="1085850" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartTerminator">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>recv</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="流程图: 终止 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3314700" y="4029075"/>
-          <a:ext cx="1314450" cy="533400"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartTerminator">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -424,7 +372,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="276225" y="523875"/>
+          <a:off x="238125" y="447675"/>
           <a:ext cx="1552575" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -461,16 +409,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -479,8 +427,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7486650" y="409575"/>
-          <a:ext cx="1409700" cy="485775"/>
+          <a:off x="9020175" y="428625"/>
+          <a:ext cx="1247775" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -517,15 +465,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -534,8 +482,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5810250" y="923926"/>
-          <a:ext cx="609600" cy="514350"/>
+          <a:off x="5772150" y="962026"/>
+          <a:ext cx="714375" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -675,15 +623,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -692,8 +640,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1276350" y="1143000"/>
-          <a:ext cx="590550" cy="409575"/>
+          <a:off x="1162050" y="981075"/>
+          <a:ext cx="238125" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -719,15 +667,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>628649</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -736,8 +684,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1638300" y="1809750"/>
-          <a:ext cx="1152525" cy="514350"/>
+          <a:off x="2000249" y="1809750"/>
+          <a:ext cx="904875" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -774,16 +722,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -792,8 +740,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2324101" y="2171700"/>
-          <a:ext cx="666750" cy="514350"/>
+          <a:off x="2857499" y="1838325"/>
+          <a:ext cx="714375" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -831,15 +779,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -848,8 +796,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6486525" y="1152525"/>
-          <a:ext cx="561975" cy="333375"/>
+          <a:off x="6515100" y="952500"/>
+          <a:ext cx="2266950" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
           <a:avLst/>
@@ -885,15 +833,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
+      <xdr:colOff>371474</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -902,25 +850,25 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371475" y="2914650"/>
-          <a:ext cx="1981200" cy="895350"/>
+          <a:off x="371474" y="2914650"/>
+          <a:ext cx="2133601" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="snip1Rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -943,28 +891,138 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="剪去对角的矩形 19"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2524125" y="3114675"/>
-          <a:ext cx="438150" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="snip2DiagRect">
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="圆角矩形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8743949" y="2905126"/>
+          <a:ext cx="1552575" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>客户端</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矩形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8839200" y="3000375"/>
+          <a:ext cx="1314450" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>约定好数据格式</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="矩形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="676275"/>
+          <a:ext cx="904875" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -995,318 +1053,43 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>663515</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>94141</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>115507</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>170341</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="流程图: 终止 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="1528869">
-          <a:off x="3406715" y="2322991"/>
-          <a:ext cx="4252592" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartTerminator">
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="下箭头 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4467225" y="476250"/>
+          <a:ext cx="114300" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent5"/>
         </a:lnRef>
         <a:fillRef idx="2">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>新建管道</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="流程图: 手动输入 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6934200" y="2962276"/>
-          <a:ext cx="609600" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartManualInput">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="圆角矩形 22"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7515224" y="2305051"/>
-          <a:ext cx="1552575" cy="1543050"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>客户端</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="矩形 23"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7610475" y="2400300"/>
-          <a:ext cx="1409700" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>约定好数据格式</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="矩形 24"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4105275" y="3038475"/>
-          <a:ext cx="1790699" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="下箭头 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4819650" y="2705100"/>
-          <a:ext cx="114300" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1947,15 +1730,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>387077</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>144119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>121150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>148696</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1963,9 +1746,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="19733292">
-          <a:off x="3095625" y="4381500"/>
-          <a:ext cx="4400550" cy="190500"/>
+        <a:xfrm rot="20927022">
+          <a:off x="3130277" y="4773269"/>
+          <a:ext cx="5906273" cy="176027"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2330,16 +2113,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2347,8 +2130,8 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="2967359">
-          <a:off x="5286375" y="4067175"/>
+        <a:xfrm rot="4514630">
+          <a:off x="6419851" y="4457699"/>
           <a:ext cx="342900" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -2384,14 +2167,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2399,9 +2182,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1419225" y="5600700"/>
-          <a:ext cx="4648200" cy="57150"/>
+        <a:xfrm>
+          <a:off x="1419225" y="5657850"/>
+          <a:ext cx="4572000" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2409,13 +2192,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent6"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent6"/>
         </a:fillRef>
         <a:effectRef idx="2">
-          <a:schemeClr val="accent3"/>
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -2426,16 +2209,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2444,7 +2227,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2943225" y="5438775"/>
+          <a:off x="3333750" y="5562600"/>
           <a:ext cx="390525" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -2479,15 +2262,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2496,7 +2279,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3276600" y="5981700"/>
+          <a:off x="3362325" y="5791200"/>
           <a:ext cx="390525" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -2533,15 +2316,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2550,7 +2333,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1524000" y="5876925"/>
+          <a:off x="1409700" y="5734050"/>
           <a:ext cx="390525" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -2569,6 +2352,758 @@
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>172100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>70295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600755</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>60770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="左箭头 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2021402">
+          <a:off x="6344300" y="1956245"/>
+          <a:ext cx="2486055" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直接箭头连接符 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="1066800"/>
+          <a:ext cx="0" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="矩形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334249" y="800100"/>
+          <a:ext cx="714375" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>200</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="矩形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2091503">
+          <a:off x="7267574" y="1819275"/>
+          <a:ext cx="714375" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>201</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="剪去单角的矩形 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371474" y="3648075"/>
+          <a:ext cx="2133601" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip1Rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据  身体</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="矩形 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447799" y="8077200"/>
+          <a:ext cx="3228975" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>服务器</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>插管  新建</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>socket</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>监听</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>8888</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>接收开阀门</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>accept</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>接收流水</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>recv</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>5.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>把流水放在容器里分析</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>6.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>回发数据</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>send</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="矩形 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5200649" y="8124825"/>
+          <a:ext cx="3286125" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>客户端</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>插管  新建</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>socket</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>连接</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>connect</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>接收开阀门</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>accept</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>回发数据</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>send</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>5.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>接收</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>流水</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>recv</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>6.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>把流水放在容器里分析</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="矩形 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8801100" y="952500"/>
+          <a:ext cx="714375" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>194372</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>685069</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="矩形 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2343430">
+          <a:off x="8423972" y="2681230"/>
+          <a:ext cx="490697" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="剪去对角的矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="1524000"/>
+          <a:ext cx="323850" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="snip2DiagRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2872,8 +3407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
